--- a/Maaleenhed/fft/samlign med matlab.xlsx
+++ b/Maaleenhed/fft/samlign med matlab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6795"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="6795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1677,12 +1677,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1710,11 +1711,15 @@
       <c r="D2">
         <v>0</v>
       </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E3" si="0">SQRT((C2*C2)+(D2*D2))*(2/64)</f>
+        <v>5050.21875</v>
+      </c>
       <c r="F2" t="s">
         <v>67</v>
       </c>
       <c r="J2">
-        <f>A2-g</f>
+        <f t="shared" ref="J2:J33" si="1">A2-g</f>
         <v>-431</v>
       </c>
     </row>
@@ -1728,11 +1733,15 @@
       <c r="D3">
         <v>1891.26000408973</v>
       </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>93.338288368686079</v>
+      </c>
       <c r="F3" t="s">
         <v>68</v>
       </c>
       <c r="J3">
-        <f>A3-g</f>
+        <f t="shared" si="1"/>
         <v>-457</v>
       </c>
     </row>
@@ -1746,11 +1755,15 @@
       <c r="D4">
         <v>8975.0389748284997</v>
       </c>
+      <c r="E4">
+        <f>SQRT((C4*C4)+(D4*D4))*(2/64)</f>
+        <v>318.75204114568226</v>
+      </c>
       <c r="F4" t="s">
         <v>69</v>
       </c>
       <c r="J4">
-        <f>A4-g</f>
+        <f t="shared" si="1"/>
         <v>-453</v>
       </c>
     </row>
@@ -1764,11 +1777,15 @@
       <c r="D5">
         <v>-10367.945888755699</v>
       </c>
+      <c r="E5">
+        <f>SQRT((C5*C5)+(D5*D5))*(2/64)</f>
+        <v>336.51255407085864</v>
+      </c>
       <c r="F5" t="s">
         <v>70</v>
       </c>
       <c r="J5">
-        <f>A5-g</f>
+        <f t="shared" si="1"/>
         <v>-418</v>
       </c>
     </row>
@@ -1782,11 +1799,15 @@
       <c r="D6">
         <v>-3947.0312767371001</v>
       </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E18" si="2">SQRT((C6*C6)+(D6*D6))*(2/64)</f>
+        <v>124.33233906733119</v>
+      </c>
       <c r="F6" t="s">
         <v>71</v>
       </c>
       <c r="J6">
-        <f>A6-g</f>
+        <f t="shared" si="1"/>
         <v>-355</v>
       </c>
     </row>
@@ -1800,11 +1821,15 @@
       <c r="D7">
         <v>-2556.68090648523</v>
       </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>79.901944931145778</v>
+      </c>
       <c r="F7" t="s">
         <v>72</v>
       </c>
       <c r="J7">
-        <f>A7-g</f>
+        <f t="shared" si="1"/>
         <v>-268</v>
       </c>
     </row>
@@ -1818,11 +1843,15 @@
       <c r="D8">
         <v>-1915.81386731002</v>
       </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>60.066298768519864</v>
+      </c>
       <c r="F8" t="s">
         <v>73</v>
       </c>
       <c r="J8">
-        <f>A8-g</f>
+        <f t="shared" si="1"/>
         <v>-161</v>
       </c>
     </row>
@@ -1836,11 +1865,15 @@
       <c r="D9">
         <v>-1537.0553105338799</v>
       </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>48.666910718990998</v>
+      </c>
       <c r="F9" t="s">
         <v>74</v>
       </c>
       <c r="J9">
-        <f>A9-g</f>
+        <f t="shared" si="1"/>
         <v>-42</v>
       </c>
     </row>
@@ -1854,11 +1887,15 @@
       <c r="D10">
         <v>-1291.70476093299</v>
       </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>41.461796237806887</v>
+      </c>
       <c r="F10" t="s">
         <v>75</v>
       </c>
       <c r="J10">
-        <f>A10-g</f>
+        <f t="shared" si="1"/>
         <v>83</v>
       </c>
     </row>
@@ -1872,11 +1909,15 @@
       <c r="D11">
         <v>-1103.2195326322701</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>36.088256033269062</v>
+      </c>
       <c r="F11" t="s">
         <v>76</v>
       </c>
       <c r="J11">
-        <f>A11-g</f>
+        <f t="shared" si="1"/>
         <v>207</v>
       </c>
     </row>
@@ -1890,11 +1931,15 @@
       <c r="D12">
         <v>-957.096223748846</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>32.060093853429713</v>
+      </c>
       <c r="F12" t="s">
         <v>77</v>
       </c>
       <c r="J12">
-        <f>A12-g</f>
+        <f t="shared" si="1"/>
         <v>321</v>
       </c>
     </row>
@@ -1908,11 +1953,15 @@
       <c r="D13">
         <v>-847.33863735069599</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>29.115761152802715</v>
+      </c>
       <c r="F13" t="s">
         <v>78</v>
       </c>
       <c r="J13">
-        <f>A13-g</f>
+        <f t="shared" si="1"/>
         <v>420</v>
       </c>
     </row>
@@ -1926,11 +1975,15 @@
       <c r="D14">
         <v>-755.62058662857498</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>26.720525733909593</v>
+      </c>
       <c r="F14" t="s">
         <v>79</v>
       </c>
       <c r="J14">
-        <f>A14-g</f>
+        <f t="shared" si="1"/>
         <v>498</v>
       </c>
     </row>
@@ -1944,11 +1997,15 @@
       <c r="D15">
         <v>-674.02109821450301</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>24.674548016074329</v>
+      </c>
       <c r="F15" t="s">
         <v>80</v>
       </c>
       <c r="J15">
-        <f>A15-g</f>
+        <f t="shared" si="1"/>
         <v>549</v>
       </c>
     </row>
@@ -1962,11 +2019,15 @@
       <c r="D16">
         <v>-606.98718666322497</v>
       </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>23.084407347245982</v>
+      </c>
       <c r="F16" t="s">
         <v>81</v>
       </c>
       <c r="J16">
-        <f>A16-g</f>
+        <f t="shared" si="1"/>
         <v>572</v>
       </c>
     </row>
@@ -1980,11 +2041,15 @@
       <c r="D17">
         <v>-547.41355284565896</v>
       </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>21.679862938463433</v>
+      </c>
       <c r="F17" t="s">
         <v>82</v>
       </c>
       <c r="J17">
-        <f>A17-g</f>
+        <f t="shared" si="1"/>
         <v>563</v>
       </c>
     </row>
@@ -1998,11 +2063,15 @@
       <c r="D18">
         <v>-492</v>
       </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>20.481341546942161</v>
+      </c>
       <c r="F18" t="s">
         <v>83</v>
       </c>
       <c r="J18">
-        <f>A18-g</f>
+        <f t="shared" si="1"/>
         <v>525</v>
       </c>
     </row>
@@ -2020,7 +2089,7 @@
         <v>84</v>
       </c>
       <c r="J19">
-        <f>A19-g</f>
+        <f t="shared" si="1"/>
         <v>458</v>
       </c>
     </row>
@@ -2038,7 +2107,7 @@
         <v>85</v>
       </c>
       <c r="J20">
-        <f>A20-g</f>
+        <f t="shared" si="1"/>
         <v>368</v>
       </c>
     </row>
@@ -2056,7 +2125,7 @@
         <v>86</v>
       </c>
       <c r="J21">
-        <f>A21-g</f>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
     </row>
@@ -2074,7 +2143,7 @@
         <v>87</v>
       </c>
       <c r="J22">
-        <f>A22-g</f>
+        <f t="shared" si="1"/>
         <v>139</v>
       </c>
     </row>
@@ -2092,7 +2161,7 @@
         <v>88</v>
       </c>
       <c r="J23">
-        <f>A23-g</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
@@ -2110,7 +2179,7 @@
         <v>89</v>
       </c>
       <c r="J24">
-        <f>A24-g</f>
+        <f t="shared" si="1"/>
         <v>-109</v>
       </c>
     </row>
@@ -2128,7 +2197,7 @@
         <v>90</v>
       </c>
       <c r="J25">
-        <f>A25-g</f>
+        <f t="shared" si="1"/>
         <v>-222</v>
       </c>
     </row>
@@ -2146,7 +2215,7 @@
         <v>91</v>
       </c>
       <c r="J26">
-        <f>A26-g</f>
+        <f t="shared" si="1"/>
         <v>-319</v>
       </c>
     </row>
@@ -2164,7 +2233,7 @@
         <v>92</v>
       </c>
       <c r="J27">
-        <f>A27-g</f>
+        <f t="shared" si="1"/>
         <v>-393</v>
       </c>
     </row>
@@ -2182,7 +2251,7 @@
         <v>93</v>
       </c>
       <c r="J28">
-        <f>A28-g</f>
+        <f t="shared" si="1"/>
         <v>-441</v>
       </c>
     </row>
@@ -2200,7 +2269,7 @@
         <v>94</v>
       </c>
       <c r="J29">
-        <f>A29-g</f>
+        <f t="shared" si="1"/>
         <v>-459</v>
       </c>
     </row>
@@ -2218,7 +2287,7 @@
         <v>95</v>
       </c>
       <c r="J30">
-        <f>A30-g</f>
+        <f t="shared" si="1"/>
         <v>-447</v>
       </c>
     </row>
@@ -2236,7 +2305,7 @@
         <v>96</v>
       </c>
       <c r="J31">
-        <f>A31-g</f>
+        <f t="shared" si="1"/>
         <v>-404</v>
       </c>
     </row>
@@ -2254,7 +2323,7 @@
         <v>97</v>
       </c>
       <c r="J32">
-        <f>A32-g</f>
+        <f t="shared" si="1"/>
         <v>-335</v>
       </c>
     </row>
@@ -2272,7 +2341,7 @@
         <v>98</v>
       </c>
       <c r="J33">
-        <f>A33-g</f>
+        <f t="shared" si="1"/>
         <v>-242</v>
       </c>
     </row>
@@ -2290,7 +2359,7 @@
         <v>99</v>
       </c>
       <c r="J34">
-        <f>A34-g</f>
+        <f t="shared" ref="J34:J65" si="3">A34-g</f>
         <v>-132</v>
       </c>
     </row>
@@ -2308,7 +2377,7 @@
         <v>100</v>
       </c>
       <c r="J35">
-        <f>A35-g</f>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
     </row>
@@ -2326,7 +2395,7 @@
         <v>101</v>
       </c>
       <c r="J36">
-        <f>A36-g</f>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
     </row>
@@ -2344,7 +2413,7 @@
         <v>102</v>
       </c>
       <c r="J37">
-        <f>A37-g</f>
+        <f t="shared" si="3"/>
         <v>237</v>
       </c>
     </row>
@@ -2362,7 +2431,7 @@
         <v>103</v>
       </c>
       <c r="J38">
-        <f>A38-g</f>
+        <f t="shared" si="3"/>
         <v>349</v>
       </c>
     </row>
@@ -2380,7 +2449,7 @@
         <v>104</v>
       </c>
       <c r="J39">
-        <f>A39-g</f>
+        <f t="shared" si="3"/>
         <v>442</v>
       </c>
     </row>
@@ -2398,7 +2467,7 @@
         <v>105</v>
       </c>
       <c r="J40">
-        <f>A40-g</f>
+        <f t="shared" si="3"/>
         <v>514</v>
       </c>
     </row>
@@ -2416,7 +2485,7 @@
         <v>106</v>
       </c>
       <c r="J41">
-        <f>A41-g</f>
+        <f t="shared" si="3"/>
         <v>558</v>
       </c>
     </row>
@@ -2434,7 +2503,7 @@
         <v>107</v>
       </c>
       <c r="J42">
-        <f>A42-g</f>
+        <f t="shared" si="3"/>
         <v>572</v>
       </c>
     </row>
@@ -2452,7 +2521,7 @@
         <v>108</v>
       </c>
       <c r="J43">
-        <f>A43-g</f>
+        <f t="shared" si="3"/>
         <v>556</v>
       </c>
     </row>
@@ -2470,7 +2539,7 @@
         <v>109</v>
       </c>
       <c r="J44">
-        <f>A44-g</f>
+        <f t="shared" si="3"/>
         <v>510</v>
       </c>
     </row>
@@ -2488,7 +2557,7 @@
         <v>110</v>
       </c>
       <c r="J45">
-        <f>A45-g</f>
+        <f t="shared" si="3"/>
         <v>437</v>
       </c>
     </row>
@@ -2506,7 +2575,7 @@
         <v>111</v>
       </c>
       <c r="J46">
-        <f>A46-g</f>
+        <f t="shared" si="3"/>
         <v>342</v>
       </c>
     </row>
@@ -2524,7 +2593,7 @@
         <v>112</v>
       </c>
       <c r="J47">
-        <f>A47-g</f>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
     </row>
@@ -2542,7 +2611,7 @@
         <v>113</v>
       </c>
       <c r="J48">
-        <f>A48-g</f>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
     </row>
@@ -2560,7 +2629,7 @@
         <v>114</v>
       </c>
       <c r="J49">
-        <f>A49-g</f>
+        <f t="shared" si="3"/>
         <v>-17</v>
       </c>
     </row>
@@ -2578,7 +2647,7 @@
         <v>115</v>
       </c>
       <c r="J50">
-        <f>A50-g</f>
+        <f t="shared" si="3"/>
         <v>-139</v>
       </c>
     </row>
@@ -2596,7 +2665,7 @@
         <v>116</v>
       </c>
       <c r="J51">
-        <f>A51-g</f>
+        <f t="shared" si="3"/>
         <v>-248</v>
       </c>
     </row>
@@ -2614,7 +2683,7 @@
         <v>117</v>
       </c>
       <c r="J52">
-        <f>A52-g</f>
+        <f t="shared" si="3"/>
         <v>-340</v>
       </c>
     </row>
@@ -2632,7 +2701,7 @@
         <v>118</v>
       </c>
       <c r="J53">
-        <f>A53-g</f>
+        <f t="shared" si="3"/>
         <v>-408</v>
       </c>
     </row>
@@ -2650,7 +2719,7 @@
         <v>119</v>
       </c>
       <c r="J54">
-        <f>A54-g</f>
+        <f t="shared" si="3"/>
         <v>-449</v>
       </c>
     </row>
@@ -2668,7 +2737,7 @@
         <v>120</v>
       </c>
       <c r="J55">
-        <f>A55-g</f>
+        <f t="shared" si="3"/>
         <v>-458</v>
       </c>
     </row>
@@ -2686,7 +2755,7 @@
         <v>121</v>
       </c>
       <c r="J56">
-        <f>A56-g</f>
+        <f t="shared" si="3"/>
         <v>-439</v>
       </c>
     </row>
@@ -2704,7 +2773,7 @@
         <v>122</v>
       </c>
       <c r="J57">
-        <f>A57-g</f>
+        <f t="shared" si="3"/>
         <v>-389</v>
       </c>
     </row>
@@ -2722,7 +2791,7 @@
         <v>123</v>
       </c>
       <c r="J58">
-        <f>A58-g</f>
+        <f t="shared" si="3"/>
         <v>-313</v>
       </c>
     </row>
@@ -2740,7 +2809,7 @@
         <v>124</v>
       </c>
       <c r="J59">
-        <f>A59-g</f>
+        <f t="shared" si="3"/>
         <v>-215</v>
       </c>
     </row>
@@ -2758,7 +2827,7 @@
         <v>125</v>
       </c>
       <c r="J60">
-        <f>A60-g</f>
+        <f t="shared" si="3"/>
         <v>-101</v>
       </c>
     </row>
@@ -2776,7 +2845,7 @@
         <v>126</v>
       </c>
       <c r="J61">
-        <f>A61-g</f>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -2794,7 +2863,7 @@
         <v>127</v>
       </c>
       <c r="J62">
-        <f>A62-g</f>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
     </row>
@@ -2812,7 +2881,7 @@
         <v>128</v>
       </c>
       <c r="J63">
-        <f>A63-g</f>
+        <f t="shared" si="3"/>
         <v>267</v>
       </c>
     </row>
@@ -2830,7 +2899,7 @@
         <v>129</v>
       </c>
       <c r="J64">
-        <f>A64-g</f>
+        <f t="shared" si="3"/>
         <v>374</v>
       </c>
     </row>
@@ -2848,7 +2917,7 @@
         <v>130</v>
       </c>
       <c r="J65">
-        <f>A65-g</f>
+        <f t="shared" si="3"/>
         <v>463</v>
       </c>
     </row>

--- a/Maaleenhed/fft/samlign med matlab.xlsx
+++ b/Maaleenhed/fft/samlign med matlab.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="134">
   <si>
     <t>Re_volt</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Im_volt</t>
   </si>
   <si>
-    <t>Click here to add</t>
-  </si>
-  <si>
     <t>159430,000000000 + 0,00000000000000i</t>
   </si>
   <si>
@@ -422,6 +419,18 @@
   </si>
   <si>
     <t>-2311,76567548289 + 1891,26000408974i</t>
+  </si>
+  <si>
+    <t>Input array</t>
+  </si>
+  <si>
+    <t>PSOC RE</t>
+  </si>
+  <si>
+    <t>PSOC IM</t>
+  </si>
+  <si>
+    <t>Matlab</t>
   </si>
 </sst>
 </file>
@@ -457,9 +466,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +787,7 @@
         <v>1.09708616946591E-5</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>2425</v>
@@ -786,7 +801,7 @@
         <v>-453.81260346976501</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>2308</v>
@@ -800,7 +815,7 @@
         <v>-2143.9555221595601</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>2205</v>
@@ -814,7 +829,7 @@
         <v>2499.2013147287898</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>2125</v>
@@ -828,7 +843,7 @@
         <v>952.80503693315302</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H6">
         <v>2069</v>
@@ -842,7 +857,7 @@
         <v>620.29998594968697</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>2043</v>
@@ -856,7 +871,7 @@
         <v>467.78170932502502</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>2047</v>
@@ -870,7 +885,7 @@
         <v>372.87656740773599</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>2082</v>
@@ -884,7 +899,7 @@
         <v>308.19086313239501</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>2145</v>
@@ -898,7 +913,7 @@
         <v>268.05197286798398</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11">
         <v>2232</v>
@@ -912,7 +927,7 @@
         <v>229.21416971230099</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12">
         <v>2338</v>
@@ -926,7 +941,7 @@
         <v>204.490941162197</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13">
         <v>2458</v>
@@ -940,7 +955,7 @@
         <v>180.868351473811</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14">
         <v>2583</v>
@@ -954,7 +969,7 @@
         <v>162.659386851292</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>2707</v>
@@ -968,7 +983,7 @@
         <v>147.59049171380599</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16">
         <v>2821</v>
@@ -982,7 +997,7 @@
         <v>132.00357167536399</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>2921</v>
@@ -996,7 +1011,7 @@
         <v>119.99995040883501</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18">
         <v>2998</v>
@@ -1010,7 +1025,7 @@
         <v>106.013599778657</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19">
         <v>3049</v>
@@ -1024,7 +1039,7 @@
         <v>95.949871821133399</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H20">
         <v>3072</v>
@@ -1038,7 +1053,7 @@
         <v>86.690558200138796</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21">
         <v>3063</v>
@@ -1052,7 +1067,7 @@
         <v>82.094568126849794</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H22">
         <v>3024</v>
@@ -1066,7 +1081,7 @@
         <v>68.754786792358104</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23">
         <v>2958</v>
@@ -1080,7 +1095,7 @@
         <v>60.6720193134258</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H24">
         <v>2868</v>
@@ -1094,7 +1109,7 @@
         <v>57.614485580809202</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H25">
         <v>2759</v>
@@ -1108,7 +1123,7 @@
         <v>48.190977473791499</v>
       </c>
       <c r="E26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H26">
         <v>2638</v>
@@ -1122,7 +1137,7 @@
         <v>41.400249093281403</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H27">
         <v>2513</v>
@@ -1136,7 +1151,7 @@
         <v>30.562064106295001</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H28">
         <v>2390</v>
@@ -1150,7 +1165,7 @@
         <v>30.448302035029201</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H29">
         <v>2277</v>
@@ -1164,7 +1179,7 @@
         <v>22.031725205804399</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>2181</v>
@@ -1178,7 +1193,7 @@
         <v>15.9511695025998</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>2106</v>
@@ -1192,7 +1207,7 @@
         <v>7.7265562117463498</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32">
         <v>2059</v>
@@ -1206,7 +1221,7 @@
         <v>5.99237129443667</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2041</v>
@@ -1220,7 +1235,7 @@
         <v>1.19175510917557E-5</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H34">
         <v>2054</v>
@@ -1234,7 +1249,7 @@
         <v>-5.992446243311</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>2097</v>
@@ -1248,7 +1263,7 @@
         <v>-7.72575801648349</v>
       </c>
       <c r="E36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2167</v>
@@ -1262,7 +1277,7 @@
         <v>-15.950841637042901</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H37">
         <v>2261</v>
@@ -1276,7 +1291,7 @@
         <v>-22.0311584362776</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38">
         <v>2371</v>
@@ -1290,7 +1305,7 @@
         <v>-30.448095960106901</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>2493</v>
@@ -1304,7 +1319,7 @@
         <v>-30.5616621420298</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H40">
         <v>2619</v>
@@ -1318,7 +1333,7 @@
         <v>-41.399706200936798</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H41">
         <v>2741</v>
@@ -1332,7 +1347,7 @@
         <v>-48.190840244197801</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H42">
         <v>2852</v>
@@ -1346,7 +1361,7 @@
         <v>-57.614408563820596</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H43">
         <v>2946</v>
@@ -1360,7 +1375,7 @@
         <v>-60.672363104559501</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H44">
         <v>3016</v>
@@ -1374,7 +1389,7 @@
         <v>-68.754418188636606</v>
       </c>
       <c r="E45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45">
         <v>3059</v>
@@ -1388,7 +1403,7 @@
         <v>-82.094741304241595</v>
       </c>
       <c r="E46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46">
         <v>3072</v>
@@ -1402,7 +1417,7 @@
         <v>-86.690091498815406</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H47">
         <v>3055</v>
@@ -1416,7 +1431,7 @@
         <v>-95.950327758731802</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48">
         <v>3008</v>
@@ -1430,7 +1445,7 @@
         <v>-106.01325489033</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49">
         <v>2935</v>
@@ -1444,7 +1459,7 @@
         <v>-120.000049591193</v>
       </c>
       <c r="E50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H50">
         <v>2838</v>
@@ -1458,7 +1473,7 @@
         <v>-132.00334590896799</v>
       </c>
       <c r="E51" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H51">
         <v>2726</v>
@@ -1472,7 +1487,7 @@
         <v>-147.59068241765999</v>
       </c>
       <c r="E52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H52">
         <v>2603</v>
@@ -1486,7 +1501,7 @@
         <v>-162.65974441581301</v>
       </c>
       <c r="E53" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H53">
         <v>2477</v>
@@ -1500,7 +1515,7 @@
         <v>-180.868431364906</v>
       </c>
       <c r="E54" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H54">
         <v>2356</v>
@@ -1514,7 +1529,7 @@
         <v>-204.491111056547</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H55">
         <v>2247</v>
@@ -1528,7 +1543,7 @@
         <v>-229.21409853312301</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H56">
         <v>2156</v>
@@ -1542,7 +1557,7 @@
         <v>-268.05255514388301</v>
       </c>
       <c r="E57" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H57">
         <v>2089</v>
@@ -1556,7 +1571,7 @@
         <v>-308.19095458562202</v>
       </c>
       <c r="E58" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H58">
         <v>2050</v>
@@ -1570,7 +1585,7 @@
         <v>-372.87719015015301</v>
       </c>
       <c r="E59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H59">
         <v>2041</v>
@@ -1584,7 +1599,7 @@
         <v>-467.78174942434703</v>
       </c>
       <c r="E60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H60">
         <v>2063</v>
@@ -1598,7 +1613,7 @@
         <v>-620.30062814867699</v>
       </c>
       <c r="E61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H61">
         <v>2114</v>
@@ -1612,7 +1627,7 @@
         <v>-952.80532011655703</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H62">
         <v>2192</v>
@@ -1626,7 +1641,7 @@
         <v>-2499.2018582236601</v>
       </c>
       <c r="E63" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H63">
         <v>2291</v>
@@ -1640,7 +1655,7 @@
         <v>2143.9553423869902</v>
       </c>
       <c r="E64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H64">
         <v>2406</v>
@@ -1654,7 +1669,7 @@
         <v>453.81303630152001</v>
       </c>
       <c r="E65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H65">
         <v>2530</v>
@@ -1675,33 +1690,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K131"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2069</v>
       </c>
@@ -1711,19 +1729,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E3" si="0">SQRT((C2*C2)+(D2*D2))*(2/64)</f>
-        <v>5050.21875</v>
-      </c>
-      <c r="F2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J33" si="1">A2-g</f>
-        <v>-431</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2043</v>
       </c>
@@ -1733,19 +1743,11 @@
       <c r="D3">
         <v>1891.26000408973</v>
       </c>
-      <c r="E3">
-        <f t="shared" si="0"/>
-        <v>93.338288368686079</v>
-      </c>
-      <c r="F3" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="1"/>
-        <v>-457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2047</v>
       </c>
@@ -1755,19 +1757,11 @@
       <c r="D4">
         <v>8975.0389748284997</v>
       </c>
-      <c r="E4">
-        <f>SQRT((C4*C4)+(D4*D4))*(2/64)</f>
-        <v>318.75204114568226</v>
-      </c>
-      <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="1"/>
-        <v>-453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2082</v>
       </c>
@@ -1777,19 +1771,11 @@
       <c r="D5">
         <v>-10367.945888755699</v>
       </c>
-      <c r="E5">
-        <f>SQRT((C5*C5)+(D5*D5))*(2/64)</f>
-        <v>336.51255407085864</v>
-      </c>
-      <c r="F5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>-418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2145</v>
       </c>
@@ -1799,19 +1785,11 @@
       <c r="D6">
         <v>-3947.0312767371001</v>
       </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E18" si="2">SQRT((C6*C6)+(D6*D6))*(2/64)</f>
-        <v>124.33233906733119</v>
-      </c>
-      <c r="F6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>-355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2232</v>
       </c>
@@ -1821,19 +1799,11 @@
       <c r="D7">
         <v>-2556.68090648523</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>79.901944931145778</v>
-      </c>
-      <c r="F7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="1"/>
-        <v>-268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2339</v>
       </c>
@@ -1843,19 +1813,11 @@
       <c r="D8">
         <v>-1915.81386731002</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>60.066298768519864</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>-161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2458</v>
       </c>
@@ -1865,19 +1827,11 @@
       <c r="D9">
         <v>-1537.0553105338799</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>48.666910718990998</v>
-      </c>
-      <c r="F9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="1"/>
-        <v>-42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2583</v>
       </c>
@@ -1887,19 +1841,11 @@
       <c r="D10">
         <v>-1291.70476093299</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>41.461796237806887</v>
-      </c>
-      <c r="F10" t="s">
-        <v>75</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2707</v>
       </c>
@@ -1909,19 +1855,11 @@
       <c r="D11">
         <v>-1103.2195326322701</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>36.088256033269062</v>
-      </c>
-      <c r="F11" t="s">
-        <v>76</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2821</v>
       </c>
@@ -1931,19 +1869,11 @@
       <c r="D12">
         <v>-957.096223748846</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>32.060093853429713</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>321</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2920</v>
       </c>
@@ -1953,19 +1883,11 @@
       <c r="D13">
         <v>-847.33863735069599</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>29.115761152802715</v>
-      </c>
-      <c r="F13" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="1"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2998</v>
       </c>
@@ -1975,19 +1897,11 @@
       <c r="D14">
         <v>-755.62058662857498</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>26.720525733909593</v>
-      </c>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>498</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3049</v>
       </c>
@@ -1997,19 +1911,11 @@
       <c r="D15">
         <v>-674.02109821450301</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>24.674548016074329</v>
-      </c>
-      <c r="F15" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>549</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3072</v>
       </c>
@@ -2019,19 +1925,11 @@
       <c r="D16">
         <v>-606.98718666322497</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>23.084407347245982</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="1"/>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3063</v>
       </c>
@@ -2041,19 +1939,11 @@
       <c r="D17">
         <v>-547.41355284565896</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>21.679862938463433</v>
-      </c>
-      <c r="F17" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>563</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3025</v>
       </c>
@@ -2063,19 +1953,11 @@
       <c r="D18">
         <v>-492</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>20.481341546942161</v>
-      </c>
-      <c r="F18" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="1"/>
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2958</v>
       </c>
@@ -2085,15 +1967,11 @@
       <c r="D19">
         <v>-445.52958473882501</v>
       </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="1"/>
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2868</v>
       </c>
@@ -2103,15 +1981,11 @@
       <c r="D20">
         <v>-403.14280425860397</v>
       </c>
-      <c r="F20" t="s">
-        <v>85</v>
-      </c>
-      <c r="J20">
-        <f t="shared" si="1"/>
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2760</v>
       </c>
@@ -2121,15 +1995,11 @@
       <c r="D21">
         <v>-366.01123056850201</v>
       </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="1"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2639</v>
       </c>
@@ -2139,15 +2009,11 @@
       <c r="D22">
         <v>-327.91546675808399</v>
       </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2515</v>
       </c>
@@ -2157,15 +2023,11 @@
       <c r="D23">
         <v>-293.19557134536501</v>
       </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2391</v>
       </c>
@@ -2175,15 +2037,11 @@
       <c r="D24">
         <v>-256.661332166877</v>
       </c>
-      <c r="F24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J24">
-        <f t="shared" si="1"/>
-        <v>-109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2278</v>
       </c>
@@ -2193,15 +2051,11 @@
       <c r="D25">
         <v>-232.23406303060801</v>
       </c>
-      <c r="F25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="1"/>
-        <v>-222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2181</v>
       </c>
@@ -2211,15 +2065,11 @@
       <c r="D26">
         <v>-201.70476093299499</v>
       </c>
-      <c r="F26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="1"/>
-        <v>-319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2107</v>
       </c>
@@ -2229,15 +2079,11 @@
       <c r="D27">
         <v>-172.71437559563</v>
       </c>
-      <c r="F27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="1"/>
-        <v>-393</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2059</v>
       </c>
@@ -2247,15 +2093,11 @@
       <c r="D28">
         <v>-151.62774386154999</v>
       </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-      <c r="J28">
-        <f t="shared" si="1"/>
-        <v>-441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2041</v>
       </c>
@@ -2265,15 +2107,11 @@
       <c r="D29">
         <v>-122.960839712161</v>
       </c>
-      <c r="F29" t="s">
-        <v>94</v>
-      </c>
-      <c r="J29">
-        <f t="shared" si="1"/>
-        <v>-459</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2053</v>
       </c>
@@ -2283,15 +2121,11 @@
       <c r="D30">
         <v>-95.326156866617296</v>
       </c>
-      <c r="F30" t="s">
-        <v>95</v>
-      </c>
-      <c r="J30">
-        <f t="shared" si="1"/>
-        <v>-447</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2096</v>
       </c>
@@ -2301,15 +2135,11 @@
       <c r="D31">
         <v>-68.216166843257199</v>
       </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
-      <c r="J31">
-        <f t="shared" si="1"/>
-        <v>-404</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E31" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2165</v>
       </c>
@@ -2319,15 +2149,11 @@
       <c r="D32">
         <v>-53.365410900366399</v>
       </c>
-      <c r="F32" t="s">
-        <v>97</v>
-      </c>
-      <c r="J32">
-        <f t="shared" si="1"/>
-        <v>-335</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E32" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2258</v>
       </c>
@@ -2337,15 +2163,11 @@
       <c r="D33">
         <v>-25.357708968103701</v>
       </c>
-      <c r="F33" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="1"/>
-        <v>-242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E33" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2368</v>
       </c>
@@ -2355,15 +2177,11 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="F34" t="s">
-        <v>99</v>
-      </c>
-      <c r="J34">
-        <f t="shared" ref="J34:J65" si="3">A34-g</f>
-        <v>-132</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E34" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2490</v>
       </c>
@@ -2373,15 +2191,11 @@
       <c r="D35">
         <v>25.357708968106</v>
       </c>
-      <c r="F35" t="s">
-        <v>100</v>
-      </c>
-      <c r="J35">
-        <f t="shared" si="3"/>
-        <v>-10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E35" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2615</v>
       </c>
@@ -2391,15 +2205,11 @@
       <c r="D36">
         <v>53.365410900375501</v>
       </c>
-      <c r="F36" t="s">
-        <v>101</v>
-      </c>
-      <c r="J36">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2737</v>
       </c>
@@ -2409,15 +2219,11 @@
       <c r="D37">
         <v>68.216166843248999</v>
       </c>
-      <c r="F37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37">
-        <f t="shared" si="3"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2849</v>
       </c>
@@ -2427,15 +2233,11 @@
       <c r="D38">
         <v>95.326156866614298</v>
       </c>
-      <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="J38">
-        <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2942</v>
       </c>
@@ -2445,15 +2247,11 @@
       <c r="D39">
         <v>122.96083971215999</v>
       </c>
-      <c r="F39" t="s">
-        <v>104</v>
-      </c>
-      <c r="J39">
-        <f t="shared" si="3"/>
-        <v>442</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3014</v>
       </c>
@@ -2463,15 +2261,11 @@
       <c r="D40">
         <v>151.627743861548</v>
       </c>
-      <c r="F40" t="s">
-        <v>105</v>
-      </c>
-      <c r="J40">
-        <f t="shared" si="3"/>
-        <v>514</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3058</v>
       </c>
@@ -2481,15 +2275,11 @@
       <c r="D41">
         <v>172.71437559562901</v>
       </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="3"/>
-        <v>558</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E41" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3072</v>
       </c>
@@ -2499,15 +2289,11 @@
       <c r="D42">
         <v>201.70476093299399</v>
       </c>
-      <c r="F42" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="3"/>
-        <v>572</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E42" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3056</v>
       </c>
@@ -2517,15 +2303,11 @@
       <c r="D43">
         <v>232.23406303060699</v>
       </c>
-      <c r="F43" t="s">
-        <v>108</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="3"/>
-        <v>556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E43" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3010</v>
       </c>
@@ -2535,15 +2317,11 @@
       <c r="D44">
         <v>256.661332166877</v>
       </c>
-      <c r="F44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J44">
-        <f t="shared" si="3"/>
-        <v>510</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E44" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2937</v>
       </c>
@@ -2553,15 +2331,11 @@
       <c r="D45">
         <v>293.19557134536399</v>
       </c>
-      <c r="F45" t="s">
-        <v>110</v>
-      </c>
-      <c r="J45">
-        <f t="shared" si="3"/>
-        <v>437</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E45" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2842</v>
       </c>
@@ -2571,15 +2345,11 @@
       <c r="D46">
         <v>327.91546675808303</v>
       </c>
-      <c r="F46" t="s">
-        <v>111</v>
-      </c>
-      <c r="J46">
-        <f t="shared" si="3"/>
-        <v>342</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E46" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2730</v>
       </c>
@@ -2589,15 +2359,11 @@
       <c r="D47">
         <v>366.01123056850201</v>
       </c>
-      <c r="F47" t="s">
-        <v>112</v>
-      </c>
-      <c r="J47">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E47" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2608</v>
       </c>
@@ -2607,15 +2373,11 @@
       <c r="D48">
         <v>403.142804258605</v>
       </c>
-      <c r="F48" t="s">
-        <v>113</v>
-      </c>
-      <c r="J48">
-        <f t="shared" si="3"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E48" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2483</v>
       </c>
@@ -2625,15 +2387,11 @@
       <c r="D49">
         <v>445.52958473882597</v>
       </c>
-      <c r="F49" t="s">
-        <v>114</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="3"/>
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E49" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2361</v>
       </c>
@@ -2643,15 +2401,11 @@
       <c r="D50">
         <v>492</v>
       </c>
-      <c r="F50" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="3"/>
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E50" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2252</v>
       </c>
@@ -2661,15 +2415,11 @@
       <c r="D51">
         <v>547.41355284565896</v>
       </c>
-      <c r="F51" t="s">
-        <v>116</v>
-      </c>
-      <c r="J51">
-        <f t="shared" si="3"/>
-        <v>-248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E51" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2160</v>
       </c>
@@ -2679,15 +2429,11 @@
       <c r="D52">
         <v>606.98718666322202</v>
       </c>
-      <c r="F52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="3"/>
-        <v>-340</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E52" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2092</v>
       </c>
@@ -2697,15 +2443,11 @@
       <c r="D53">
         <v>674.02109821450597</v>
       </c>
-      <c r="F53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="3"/>
-        <v>-408</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E53" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2051</v>
       </c>
@@ -2715,15 +2457,11 @@
       <c r="D54">
         <v>755.62058662857703</v>
       </c>
-      <c r="F54" t="s">
-        <v>119</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="3"/>
-        <v>-449</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E54" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2042</v>
       </c>
@@ -2733,15 +2471,11 @@
       <c r="D55">
         <v>847.33863735069804</v>
       </c>
-      <c r="F55" t="s">
-        <v>120</v>
-      </c>
-      <c r="J55">
-        <f t="shared" si="3"/>
-        <v>-458</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E55" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2061</v>
       </c>
@@ -2751,15 +2485,11 @@
       <c r="D56">
         <v>957.096223748846</v>
       </c>
-      <c r="F56" t="s">
-        <v>121</v>
-      </c>
-      <c r="J56">
-        <f t="shared" si="3"/>
-        <v>-439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E56" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2111</v>
       </c>
@@ -2769,15 +2499,11 @@
       <c r="D57">
         <v>1103.2195326322701</v>
       </c>
-      <c r="F57" t="s">
-        <v>122</v>
-      </c>
-      <c r="J57">
-        <f t="shared" si="3"/>
-        <v>-389</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E57" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2187</v>
       </c>
@@ -2787,15 +2513,11 @@
       <c r="D58">
         <v>1291.70476093299</v>
       </c>
-      <c r="F58" t="s">
-        <v>123</v>
-      </c>
-      <c r="J58">
-        <f t="shared" si="3"/>
-        <v>-313</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E58" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2285</v>
       </c>
@@ -2805,15 +2527,11 @@
       <c r="D59">
         <v>1537.0553105338799</v>
       </c>
-      <c r="F59" t="s">
-        <v>124</v>
-      </c>
-      <c r="J59">
-        <f t="shared" si="3"/>
-        <v>-215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E59" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2399</v>
       </c>
@@ -2823,15 +2541,11 @@
       <c r="D60">
         <v>1915.81386731002</v>
       </c>
-      <c r="F60" t="s">
-        <v>125</v>
-      </c>
-      <c r="J60">
-        <f t="shared" si="3"/>
-        <v>-101</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E60" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2522</v>
       </c>
@@ -2841,15 +2555,11 @@
       <c r="D61">
         <v>2556.68090648523</v>
       </c>
-      <c r="F61" t="s">
-        <v>126</v>
-      </c>
-      <c r="J61">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E61" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2647</v>
       </c>
@@ -2859,15 +2569,11 @@
       <c r="D62">
         <v>3947.0312767371001</v>
       </c>
-      <c r="F62" t="s">
-        <v>127</v>
-      </c>
-      <c r="J62">
-        <f t="shared" si="3"/>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E62" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2767</v>
       </c>
@@ -2877,15 +2583,11 @@
       <c r="D63">
         <v>10367.945888755699</v>
       </c>
-      <c r="F63" t="s">
-        <v>128</v>
-      </c>
-      <c r="J63">
-        <f t="shared" si="3"/>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E63" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2874</v>
       </c>
@@ -2895,15 +2597,11 @@
       <c r="D64">
         <v>-8975.0389748285106</v>
       </c>
-      <c r="F64" t="s">
-        <v>129</v>
-      </c>
-      <c r="J64">
-        <f t="shared" si="3"/>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E64" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2963</v>
       </c>
@@ -2913,21 +2611,13 @@
       <c r="D65">
         <v>-1891.2600040897401</v>
       </c>
-      <c r="F65" t="s">
-        <v>130</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="3"/>
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
-        <v>2</v>
+      <c r="E65" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3331,196 +3021,196 @@
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>68</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>70</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>71</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>72</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>73</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>74</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>75</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>76</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>77</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>78</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>79</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>80</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>81</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>82</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>83</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>84</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>85</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>86</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>87</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>88</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>89</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>90</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>91</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>92</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>93</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>94</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>95</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>96</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>97</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>98</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>99</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>100</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>101</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>102</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
         <v>103</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>104</v>
       </c>
-      <c r="AM10" t="s">
+      <c r="AN10" t="s">
         <v>105</v>
       </c>
-      <c r="AN10" t="s">
+      <c r="AO10" t="s">
         <v>106</v>
       </c>
-      <c r="AO10" t="s">
+      <c r="AP10" t="s">
         <v>107</v>
       </c>
-      <c r="AP10" t="s">
+      <c r="AQ10" t="s">
         <v>108</v>
       </c>
-      <c r="AQ10" t="s">
+      <c r="AR10" t="s">
         <v>109</v>
       </c>
-      <c r="AR10" t="s">
+      <c r="AS10" t="s">
         <v>110</v>
       </c>
-      <c r="AS10" t="s">
+      <c r="AT10" t="s">
         <v>111</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="AU10" t="s">
         <v>112</v>
       </c>
-      <c r="AU10" t="s">
+      <c r="AV10" t="s">
         <v>113</v>
       </c>
-      <c r="AV10" t="s">
+      <c r="AW10" t="s">
         <v>114</v>
       </c>
-      <c r="AW10" t="s">
+      <c r="AX10" t="s">
         <v>115</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>116</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>117</v>
       </c>
-      <c r="AZ10" t="s">
+      <c r="BA10" t="s">
         <v>118</v>
       </c>
-      <c r="BA10" t="s">
+      <c r="BB10" t="s">
         <v>119</v>
       </c>
-      <c r="BB10" t="s">
+      <c r="BC10" t="s">
         <v>120</v>
       </c>
-      <c r="BC10" t="s">
+      <c r="BD10" t="s">
         <v>121</v>
       </c>
-      <c r="BD10" t="s">
+      <c r="BE10" t="s">
         <v>122</v>
       </c>
-      <c r="BE10" t="s">
+      <c r="BF10" t="s">
         <v>123</v>
       </c>
-      <c r="BF10" t="s">
+      <c r="BG10" t="s">
         <v>124</v>
       </c>
-      <c r="BG10" t="s">
+      <c r="BH10" t="s">
         <v>125</v>
       </c>
-      <c r="BH10" t="s">
+      <c r="BI10" t="s">
         <v>126</v>
       </c>
-      <c r="BI10" t="s">
+      <c r="BJ10" t="s">
         <v>127</v>
       </c>
-      <c r="BJ10" t="s">
+      <c r="BK10" t="s">
         <v>128</v>
       </c>
-      <c r="BK10" t="s">
+      <c r="BL10" t="s">
         <v>129</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
